--- a/List.xlsx
+++ b/List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EE11A-4DA5-436F-A600-41BF4B8F6EA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7928A-E543-4D5F-9D6E-4EFA85742655}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,78 +380,78 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="D2">
         <v>13</v>
       </c>
-      <c r="S2">
+      <c r="E2">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="V2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="W2">
+      <c r="I2">
         <v>1985</v>
       </c>
-      <c r="X2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2">
+      <c r="K2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="S3">
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="T3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="U3">
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="V3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="I3">
         <v>1985</v>
       </c>
-      <c r="X3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="Y3">
+      <c r="K3">
         <v>14</v>
       </c>
     </row>

--- a/List.xlsx
+++ b/List.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7928A-E543-4D5F-9D6E-4EFA85742655}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688E998-A9DF-4ECB-805A-BA8E55CA63A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +90,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,7 +399,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,81 +410,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>1985</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>1985</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>